--- a/rating_credito/plan_ratings.xlsx
+++ b/rating_credito/plan_ratings.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedroCervo-Quantitas\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67CF0E6-ABAA-4B43-90FC-30B5E1C5C76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
   <si>
     <t>data</t>
   </si>
@@ -190,6 +184,18 @@
     <t>MRS LOGISTICA</t>
   </si>
   <si>
+    <t>PETROBRAS</t>
+  </si>
+  <si>
+    <t>SIMPAR</t>
+  </si>
+  <si>
+    <t>PRIO</t>
+  </si>
+  <si>
+    <t>SABESP</t>
+  </si>
+  <si>
     <t>Energia eletrica</t>
   </si>
   <si>
@@ -251,16 +257,19 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,21 +333,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +377,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -410,7 +411,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -445,10 +445,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,16 +620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D6:D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>45849</v>
       </c>
@@ -676,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -691,22 +688,22 @@
         <v>0.75</v>
       </c>
       <c r="H2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I2">
-        <v>1.7833000000000001</v>
+        <v>1.7833</v>
       </c>
       <c r="J2">
-        <v>7.4399999999999994E-2</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>45708</v>
       </c>
@@ -714,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -726,7 +723,7 @@
         <v>0.25</v>
       </c>
       <c r="G3">
-        <v>0.62490000000000001</v>
+        <v>0.6249</v>
       </c>
       <c r="H3">
         <v>5.4</v>
@@ -735,16 +732,16 @@
         <v>2.4</v>
       </c>
       <c r="J3">
-        <v>0.17460000000000001</v>
+        <v>0.1746</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>44859</v>
       </c>
@@ -752,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -767,22 +764,22 @@
         <v>0.78</v>
       </c>
       <c r="H4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="I4">
         <v>0.7</v>
       </c>
       <c r="J4">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>45685</v>
       </c>
@@ -790,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -811,16 +808,16 @@
         <v>1.8</v>
       </c>
       <c r="J5">
-        <v>0.10199999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>45594</v>
       </c>
@@ -828,7 +825,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -837,13 +834,13 @@
         <v>2.7</v>
       </c>
       <c r="F6">
-        <v>0.27600000000000002</v>
+        <v>0.276</v>
       </c>
       <c r="G6">
-        <v>0.59499999999999997</v>
+        <v>0.595</v>
       </c>
       <c r="H6">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="I6">
         <v>1.2</v>
@@ -852,13 +849,13 @@
         <v>0.18</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>45945</v>
       </c>
@@ -866,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -875,7 +872,7 @@
         <v>3.2</v>
       </c>
       <c r="F7">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="G7">
         <v>0.2281</v>
@@ -887,16 +884,16 @@
         <v>1.34</v>
       </c>
       <c r="J7">
-        <v>0.14249999999999999</v>
+        <v>0.1425</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>45980</v>
       </c>
@@ -904,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -913,28 +910,28 @@
         <v>3.5</v>
       </c>
       <c r="F8">
-        <v>0.26700000000000002</v>
+        <v>0.267</v>
       </c>
       <c r="G8">
         <v>0.45</v>
       </c>
       <c r="H8">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J8">
-        <v>0.13120000000000001</v>
+        <v>0.1312</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>45727</v>
       </c>
@@ -942,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F9">
-        <v>0.55800000000000005</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G9">
         <v>0.1731</v>
@@ -963,16 +960,16 @@
         <v>0.7</v>
       </c>
       <c r="J9">
-        <v>5.2200000000000003E-2</v>
+        <v>0.0522</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>45849</v>
       </c>
@@ -980,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -992,7 +989,7 @@
         <v>0.85</v>
       </c>
       <c r="G10">
-        <v>0.47239999999999999</v>
+        <v>0.4724</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -1004,13 +1001,13 @@
         <v>0.1</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>45758</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1030,25 +1027,25 @@
         <v>0.47</v>
       </c>
       <c r="G11">
-        <v>0.64500000000000002</v>
+        <v>0.645</v>
       </c>
       <c r="H11">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="I11">
         <v>1.48</v>
       </c>
       <c r="J11">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>45758</v>
       </c>
@@ -1056,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1065,7 +1062,7 @@
         <v>2.5</v>
       </c>
       <c r="F12">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="G12">
         <v>0.5</v>
@@ -1077,16 +1074,16 @@
         <v>2.4</v>
       </c>
       <c r="J12">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>45204</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1115,16 +1112,16 @@
         <v>3.2</v>
       </c>
       <c r="J13">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>45643</v>
       </c>
@@ -1132,19 +1129,19 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="F14">
-        <v>0.40899999999999997</v>
+        <v>0.409</v>
       </c>
       <c r="G14">
-        <v>-2.5000000000000001E-3</v>
+        <v>-0.0025</v>
       </c>
       <c r="H14">
         <v>1.9</v>
@@ -1156,13 +1153,13 @@
         <v>0.08</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>45685</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1191,16 +1188,16 @@
         <v>2.1</v>
       </c>
       <c r="J15">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>45708</v>
       </c>
@@ -1208,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1217,7 +1214,7 @@
         <v>0.8</v>
       </c>
       <c r="F16">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="G16">
         <v>0.67</v>
@@ -1232,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>45685</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1255,28 +1252,28 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.17899999999999999</v>
+        <v>0.179</v>
       </c>
       <c r="G17">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="H17">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I17">
         <v>1.3</v>
       </c>
       <c r="J17">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>45849</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1293,28 +1290,28 @@
         <v>0.9</v>
       </c>
       <c r="F18">
-        <v>0.14499999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="G18">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H18">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I18">
         <v>1.5</v>
       </c>
       <c r="J18">
-        <v>9.3000000000000013E-2</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>45916</v>
       </c>
@@ -1322,16 +1319,16 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F19">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="G19">
         <v>-0.67</v>
@@ -1343,16 +1340,16 @@
         <v>1.5</v>
       </c>
       <c r="J19">
-        <v>-2E-3</v>
+        <v>-0.002</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>44454</v>
       </c>
@@ -1360,13 +1357,13 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="F20">
         <v>0.17</v>
@@ -1384,13 +1381,13 @@
         <v>0.114</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>45896</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1407,10 +1404,10 @@
         <v>0.4</v>
       </c>
       <c r="F21">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G21">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="H21">
         <v>2.89</v>
@@ -1419,16 +1416,16 @@
         <v>28.1</v>
       </c>
       <c r="J21">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>45810</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1445,7 +1442,7 @@
         <v>0.7</v>
       </c>
       <c r="F22">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G22">
         <v>0.33</v>
@@ -1457,16 +1454,16 @@
         <v>3.2</v>
       </c>
       <c r="J22">
-        <v>5.3900000000000003E-2</v>
+        <v>0.0539</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>45860</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1498,13 +1495,13 @@
         <v>-0.18</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>45898</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1536,13 +1533,13 @@
         <v>-0.17</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>45811</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1559,13 +1556,13 @@
         <v>5.8</v>
       </c>
       <c r="F25">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="G25">
-        <v>0.63900000000000001</v>
+        <v>0.639</v>
       </c>
       <c r="H25">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="I25">
         <v>0.9</v>
@@ -1574,13 +1571,13 @@
         <v>0.109</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>45685</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1600,7 +1597,7 @@
         <v>0.66</v>
       </c>
       <c r="G26">
-        <v>0.43700000000000011</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="H26">
         <v>1.7</v>
@@ -1609,16 +1606,16 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <v>5.5999999999999987E-2</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>45896</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1635,7 +1632,7 @@
         <v>2.1</v>
       </c>
       <c r="F27">
-        <v>9.3000000000000013E-2</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="G27">
         <v>0.75</v>
@@ -1647,16 +1644,16 @@
         <v>6.1</v>
       </c>
       <c r="J27">
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.006</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>45824</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1673,13 +1670,13 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>0.17699999999999999</v>
+        <v>0.177</v>
       </c>
       <c r="G28">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="H28">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="I28">
         <v>10.8</v>
@@ -1688,13 +1685,13 @@
         <v>0.15</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>45916</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1714,7 +1711,7 @@
         <v>0.182</v>
       </c>
       <c r="G29">
-        <v>0.73599999999999999</v>
+        <v>0.736</v>
       </c>
       <c r="H29">
         <v>1.46</v>
@@ -1723,16 +1720,16 @@
         <v>3.8</v>
       </c>
       <c r="J29">
-        <v>9.3000000000000013E-2</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="K29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>45708</v>
       </c>
@@ -1740,7 +1737,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1749,7 +1746,7 @@
         <v>2.4</v>
       </c>
       <c r="F30">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="G30">
         <v>0.42</v>
@@ -1761,16 +1758,16 @@
         <v>5.5</v>
       </c>
       <c r="J30">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>45727</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1787,10 +1784,10 @@
         <v>2.5</v>
       </c>
       <c r="F31">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="G31">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="H31">
         <v>2.6</v>
@@ -1802,13 +1799,13 @@
         <v>0.16</v>
       </c>
       <c r="K31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>45758</v>
       </c>
@@ -1816,16 +1813,16 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F32">
-        <v>0.22700000000000001</v>
+        <v>0.227</v>
       </c>
       <c r="G32">
         <v>0.39</v>
@@ -1837,16 +1834,16 @@
         <v>1.5</v>
       </c>
       <c r="J32">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="K32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>45954</v>
       </c>
@@ -1854,7 +1851,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1872,19 +1869,19 @@
         <v>1.7</v>
       </c>
       <c r="I33">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="J33">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>45014</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1913,16 +1910,16 @@
         <v>0.9</v>
       </c>
       <c r="J34">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="K34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>45477</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1942,10 +1939,10 @@
         <v>0.47</v>
       </c>
       <c r="G35">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="H35">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -1954,13 +1951,13 @@
         <v>0.115</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>45959</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1977,10 +1974,10 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>0.43200000000000011</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="G36">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="H36">
         <v>1.7</v>
@@ -1992,13 +1989,13 @@
         <v>-0.05</v>
       </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>45776</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2030,13 +2027,13 @@
         <v>0.16</v>
       </c>
       <c r="K37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>45916</v>
       </c>
@@ -2044,7 +2041,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2053,10 +2050,10 @@
         <v>1.6</v>
       </c>
       <c r="F38">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G38">
-        <v>0.55899999999999994</v>
+        <v>0.5589999999999999</v>
       </c>
       <c r="H38">
         <v>4.3</v>
@@ -2068,13 +2065,13 @@
         <v>0.05</v>
       </c>
       <c r="K38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>44908</v>
       </c>
@@ -2082,7 +2079,7 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2091,10 +2088,10 @@
         <v>1.6</v>
       </c>
       <c r="F39">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G39">
-        <v>0.78599999999999992</v>
+        <v>0.7859999999999999</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -2106,13 +2103,13 @@
         <v>0.108</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>45896</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2129,7 +2126,7 @@
         <v>1.3</v>
       </c>
       <c r="F40">
-        <v>0.17199999999999999</v>
+        <v>0.172</v>
       </c>
       <c r="G40">
         <v>-0.17</v>
@@ -2144,13 +2141,13 @@
         <v>0.157</v>
       </c>
       <c r="K40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>45849</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2176,19 +2173,19 @@
         <v>3.9</v>
       </c>
       <c r="I41">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J41">
         <v>0.04</v>
       </c>
       <c r="K41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>45849</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2205,7 +2202,7 @@
         <v>2.8</v>
       </c>
       <c r="F42">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="G42">
         <v>0.17</v>
@@ -2217,16 +2214,16 @@
         <v>0.3</v>
       </c>
       <c r="J42">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="K42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>45916</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2246,7 +2243,7 @@
         <v>0.105</v>
       </c>
       <c r="G43">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="H43">
         <v>2.57</v>
@@ -2255,16 +2252,16 @@
         <v>0.6</v>
       </c>
       <c r="J43">
-        <v>0.16389999999999999</v>
+        <v>0.1639</v>
       </c>
       <c r="K43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>45685</v>
       </c>
@@ -2272,7 +2269,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2281,7 +2278,7 @@
         <v>2.8</v>
       </c>
       <c r="F44">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G44">
         <v>-0.27</v>
@@ -2296,13 +2293,13 @@
         <v>0.15</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>44859</v>
       </c>
@@ -2310,34 +2307,338 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="F45">
         <v>0.52</v>
       </c>
       <c r="G45">
-        <v>0.50539999999999996</v>
+        <v>0.5054</v>
       </c>
       <c r="H45">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="I45">
         <v>1.4</v>
       </c>
       <c r="J45">
-        <v>0.11899999999999999</v>
+        <v>0.119</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0.3</v>
+      </c>
+      <c r="F46">
+        <v>0.57</v>
+      </c>
+      <c r="G46">
+        <v>0.65</v>
+      </c>
+      <c r="H46">
+        <v>17</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0.52</v>
+      </c>
+      <c r="K46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>45959</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3.4</v>
+      </c>
+      <c r="F47">
+        <v>0.37</v>
+      </c>
+      <c r="G47">
+        <v>0.46</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>0.8</v>
+      </c>
+      <c r="J47">
+        <v>0.11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
+        <v>45959</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4.4</v>
+      </c>
+      <c r="F48">
+        <v>0.27</v>
+      </c>
+      <c r="G48">
+        <v>0.1</v>
+      </c>
+      <c r="H48">
+        <v>1.5</v>
+      </c>
+      <c r="I48">
+        <v>1.2</v>
+      </c>
+      <c r="J48">
+        <v>-0.0135</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
+        <v>46002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3.6</v>
+      </c>
+      <c r="F49">
+        <v>0.144</v>
+      </c>
+      <c r="G49">
+        <v>0.62</v>
+      </c>
+      <c r="H49">
+        <v>1.7</v>
+      </c>
+      <c r="I49">
+        <v>3.8</v>
+      </c>
+      <c r="J49">
+        <v>0.093</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2.1</v>
+      </c>
+      <c r="F50">
+        <v>0.31</v>
+      </c>
+      <c r="G50">
+        <v>0.58</v>
+      </c>
+      <c r="H50">
+        <v>4.4</v>
+      </c>
+      <c r="I50">
+        <v>1.1</v>
+      </c>
+      <c r="J50">
+        <v>0.235</v>
+      </c>
+      <c r="K50" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3.1</v>
+      </c>
+      <c r="F51">
+        <v>0.51</v>
+      </c>
+      <c r="G51">
+        <v>0.73</v>
+      </c>
+      <c r="H51">
+        <v>3.3</v>
+      </c>
+      <c r="I51">
+        <v>2.7</v>
+      </c>
+      <c r="J51">
+        <v>0.27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>46006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>-0.4</v>
+      </c>
+      <c r="F52">
+        <v>0.19</v>
+      </c>
+      <c r="G52">
+        <v>0.78</v>
+      </c>
+      <c r="H52">
+        <v>24.5</v>
+      </c>
+      <c r="I52">
+        <v>54.7</v>
+      </c>
+      <c r="J52">
+        <v>0.118</v>
+      </c>
+      <c r="K52" t="s">
+        <v>75</v>
+      </c>
+      <c r="L52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>46009</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1.9</v>
+      </c>
+      <c r="F53">
+        <v>0.4</v>
+      </c>
+      <c r="G53">
+        <v>1.09</v>
+      </c>
+      <c r="H53">
+        <v>6.07</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0.21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L53" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
